--- a/data/2024/14-05-2024.xlsx
+++ b/data/2024/14-05-2024.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -45,7 +45,7 @@
     <t>From Date</t>
   </si>
   <si>
-    <t>13-May-2024</t>
+    <t>08-May-2024</t>
   </si>
   <si>
     <t>To Date</t>
@@ -93,10 +93,10 @@
     <t>250000</t>
   </si>
   <si>
-    <t>301557.73</t>
-  </si>
-  <si>
-    <t>51557.73</t>
+    <t>306129.05</t>
+  </si>
+  <si>
+    <t>56129.05</t>
   </si>
   <si>
     <t>2234.274</t>
@@ -177,15 +177,156 @@
     <t>218678.44</t>
   </si>
   <si>
-    <t>223521.27</t>
-  </si>
-  <si>
-    <t>4842.83</t>
+    <t>225922.93</t>
+  </si>
+  <si>
+    <t>7244.49</t>
   </si>
   <si>
     <t>10065.669</t>
   </si>
   <si>
+    <t>quant Small Cap Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>Quant MF</t>
+  </si>
+  <si>
+    <t>51035672773</t>
+  </si>
+  <si>
+    <t>450000.00</t>
+  </si>
+  <si>
+    <t>627042.70</t>
+  </si>
+  <si>
+    <t>177042.7</t>
+  </si>
+  <si>
+    <t>2381.176</t>
+  </si>
+  <si>
+    <t>quant Quantamental Fund - Direct Plan</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>400000.00</t>
+  </si>
+  <si>
+    <t>579138.56</t>
+  </si>
+  <si>
+    <t>179138.56</t>
+  </si>
+  <si>
+    <t>23773.380</t>
+  </si>
+  <si>
+    <t>51035672783</t>
+  </si>
+  <si>
+    <t>1760000.00</t>
+  </si>
+  <si>
+    <t>1929513.72</t>
+  </si>
+  <si>
+    <t>169513.72</t>
+  </si>
+  <si>
+    <t>7327.271</t>
+  </si>
+  <si>
+    <t>quant Liquid Fund - Direct Plan</t>
+  </si>
+  <si>
+    <t>LIQUID</t>
+  </si>
+  <si>
+    <t>88772.70</t>
+  </si>
+  <si>
+    <t>90025.41</t>
+  </si>
+  <si>
+    <t>1252.71</t>
+  </si>
+  <si>
+    <t>2298.707</t>
+  </si>
+  <si>
+    <t>quant Momentum Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>1345500.00</t>
+  </si>
+  <si>
+    <t>1450171.93</t>
+  </si>
+  <si>
+    <t>104671.93</t>
+  </si>
+  <si>
+    <t>101475.910</t>
+  </si>
+  <si>
+    <t>quant Flexi Cap Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>125000.00</t>
+  </si>
+  <si>
+    <t>147390.03</t>
+  </si>
+  <si>
+    <t>22390.03</t>
+  </si>
+  <si>
+    <t>1378.879</t>
+  </si>
+  <si>
+    <t>1625000.00</t>
+  </si>
+  <si>
+    <t>1886245.59</t>
+  </si>
+  <si>
+    <t>261245.59</t>
+  </si>
+  <si>
+    <t>77429.542</t>
+  </si>
+  <si>
+    <t>51061147413</t>
+  </si>
+  <si>
+    <t>1575000.00</t>
+  </si>
+  <si>
+    <t>1658098.67</t>
+  </si>
+  <si>
+    <t>83098.67</t>
+  </si>
+  <si>
+    <t>116025.602</t>
+  </si>
+  <si>
+    <t>675000.00</t>
+  </si>
+  <si>
+    <t>709898.15</t>
+  </si>
+  <si>
+    <t>34898.15</t>
+  </si>
+  <si>
+    <t>29141.003</t>
+  </si>
+  <si>
     <t>NIPPON INDIA GROWTH FUND - GROWTH PLAN GROWTH OPTION</t>
   </si>
   <si>
@@ -225,147 +366,6 @@
     <t>2403.568</t>
   </si>
   <si>
-    <t>quant Small Cap Fund - Direct Plan Growth</t>
-  </si>
-  <si>
-    <t>Quant MF</t>
-  </si>
-  <si>
-    <t>51035672773</t>
-  </si>
-  <si>
-    <t>450000.00</t>
-  </si>
-  <si>
-    <t>615096.57</t>
-  </si>
-  <si>
-    <t>165096.57</t>
-  </si>
-  <si>
-    <t>2381.176</t>
-  </si>
-  <si>
-    <t>quant Quantamental Fund - Direct Plan</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>400000.00</t>
-  </si>
-  <si>
-    <t>566512.51</t>
-  </si>
-  <si>
-    <t>166512.51</t>
-  </si>
-  <si>
-    <t>23773.380</t>
-  </si>
-  <si>
-    <t>51035672783</t>
-  </si>
-  <si>
-    <t>1760000.00</t>
-  </si>
-  <si>
-    <t>1892753.53</t>
-  </si>
-  <si>
-    <t>132753.53</t>
-  </si>
-  <si>
-    <t>7327.271</t>
-  </si>
-  <si>
-    <t>quant Liquid Fund - Direct Plan</t>
-  </si>
-  <si>
-    <t>LIQUID</t>
-  </si>
-  <si>
-    <t>88772.70</t>
-  </si>
-  <si>
-    <t>90004.95</t>
-  </si>
-  <si>
-    <t>1232.25</t>
-  </si>
-  <si>
-    <t>2298.707</t>
-  </si>
-  <si>
-    <t>quant Momentum Fund - Direct Plan Growth</t>
-  </si>
-  <si>
-    <t>1345500.00</t>
-  </si>
-  <si>
-    <t>1419759.60</t>
-  </si>
-  <si>
-    <t>74259.6</t>
-  </si>
-  <si>
-    <t>101475.910</t>
-  </si>
-  <si>
-    <t>quant Flexi Cap Fund - Direct Plan Growth</t>
-  </si>
-  <si>
-    <t>125000.00</t>
-  </si>
-  <si>
-    <t>144698.05</t>
-  </si>
-  <si>
-    <t>19698.05</t>
-  </si>
-  <si>
-    <t>1378.879</t>
-  </si>
-  <si>
-    <t>1625000.00</t>
-  </si>
-  <si>
-    <t>1845122.76</t>
-  </si>
-  <si>
-    <t>220122.76</t>
-  </si>
-  <si>
-    <t>77429.542</t>
-  </si>
-  <si>
-    <t>51061147413</t>
-  </si>
-  <si>
-    <t>1365000.00</t>
-  </si>
-  <si>
-    <t>1413336.30</t>
-  </si>
-  <si>
-    <t>48336.3</t>
-  </si>
-  <si>
-    <t>101016.811</t>
-  </si>
-  <si>
-    <t>585000.00</t>
-  </si>
-  <si>
-    <t>604425.85</t>
-  </si>
-  <si>
-    <t>19425.85</t>
-  </si>
-  <si>
-    <t>25364.392</t>
-  </si>
-  <si>
     <t>Total Investments</t>
   </si>
   <si>
@@ -385,6 +385,63 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>S T P Out</t>
+  </si>
+  <si>
+    <t>08-MAY-2024</t>
+  </si>
+  <si>
+    <t>39.1194</t>
+  </si>
+  <si>
+    <t>-204.502</t>
+  </si>
+  <si>
+    <t>-8000.00</t>
+  </si>
+  <si>
+    <t>S T P In</t>
+  </si>
+  <si>
+    <t>14.2654</t>
+  </si>
+  <si>
+    <t>560.769</t>
+  </si>
+  <si>
+    <t>7999.60</t>
+  </si>
+  <si>
+    <t>09-MAY-2024</t>
+  </si>
+  <si>
+    <t>13.9579</t>
+  </si>
+  <si>
+    <t>573.123</t>
+  </si>
+  <si>
+    <t>Additional Purchase</t>
+  </si>
+  <si>
+    <t>13.9911</t>
+  </si>
+  <si>
+    <t>15008.791</t>
+  </si>
+  <si>
+    <t>209989.50</t>
+  </si>
+  <si>
+    <t>23.8297</t>
+  </si>
+  <si>
+    <t>3776.611</t>
+  </si>
+  <si>
+    <t>89995.50</t>
   </si>
 </sst>
 </file>
@@ -554,13 +611,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="2">
-        <v>1.326209382E7</v>
+        <v>1.356209382E7</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>1.553485394E7</v>
+        <v>1.602764156E7</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>2272760.12</v>
+        <v>2465547.7399999998</v>
       </c>
     </row>
     <row r="12">
@@ -779,10 +836,10 @@
         <v>58</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>66</v>
@@ -799,224 +856,224 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="H21" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s" s="2">
+      <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="D22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s" s="2">
+      <c r="G22" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="G23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s" s="2">
+      <c r="G24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="D24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s" s="2">
+      <c r="H24" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="G28" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="H28" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s" s="2">
         <v>113</v>
@@ -1038,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1046,9 +1103,9 @@
   <cols>
     <col min="1" max="1" width="50.78125" customWidth="true"/>
     <col min="2" max="2" width="24.4140625" customWidth="true"/>
-    <col min="3" max="3" width="5.859375" customWidth="true"/>
-    <col min="4" max="4" width="4.8828125" customWidth="true"/>
-    <col min="5" max="5" width="6.8359375" customWidth="true"/>
+    <col min="3" max="3" width="10.6640625" customWidth="true"/>
+    <col min="4" max="4" width="7.3828125" customWidth="true"/>
+    <col min="5" max="5" width="9.0234375" customWidth="true"/>
     <col min="6" max="6" width="7.8125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1128,6 +1185,106 @@
         <v>123</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s" s="4">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
